--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H2">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N2">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q2">
-        <v>1.726957512549</v>
+        <v>0.13969091316</v>
       </c>
       <c r="R2">
-        <v>15.542617612941</v>
+        <v>1.25721821844</v>
       </c>
       <c r="S2">
-        <v>0.0001429293994883319</v>
+        <v>1.223048878367398E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001429293994883319</v>
+        <v>1.223048878367398E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H3">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.353977</v>
       </c>
       <c r="O3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q3">
-        <v>7.225187499287</v>
+        <v>1.397861348804</v>
       </c>
       <c r="R3">
-        <v>65.026687493583</v>
+        <v>12.580752139236</v>
       </c>
       <c r="S3">
-        <v>0.0005979832757665438</v>
+        <v>0.0001223882581975578</v>
       </c>
       <c r="T3">
-        <v>0.0005979832757665439</v>
+        <v>0.0001223882581975578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H4">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>41.266181</v>
       </c>
       <c r="O4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q4">
-        <v>9.822630329611</v>
+        <v>1.900390167412</v>
       </c>
       <c r="R4">
-        <v>88.403672966499</v>
+        <v>17.103511506708</v>
       </c>
       <c r="S4">
-        <v>0.000812957263977472</v>
+        <v>0.0001663866324684621</v>
       </c>
       <c r="T4">
-        <v>0.000812957263977472</v>
+        <v>0.0001663866324684621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I5">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J5">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N5">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q5">
-        <v>1096.525719275246</v>
+        <v>458.4482836397532</v>
       </c>
       <c r="R5">
-        <v>9868.731473477214</v>
+        <v>4126.034552757779</v>
       </c>
       <c r="S5">
-        <v>0.09075252948649205</v>
+        <v>0.04013895008709949</v>
       </c>
       <c r="T5">
-        <v>0.09075252948649205</v>
+        <v>0.04013895008709948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I6">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J6">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.353977</v>
       </c>
       <c r="O6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q6">
         <v>4587.607895379187</v>
@@ -818,10 +818,10 @@
         <v>41288.47105841268</v>
       </c>
       <c r="S6">
-        <v>0.3796874195281469</v>
+        <v>0.4016631120741778</v>
       </c>
       <c r="T6">
-        <v>0.379687419528147</v>
+        <v>0.4016631120741778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I7">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J7">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>41.266181</v>
       </c>
       <c r="O7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q7">
         <v>6236.845266363172</v>
@@ -880,10 +880,10 @@
         <v>56131.60739726855</v>
       </c>
       <c r="S7">
-        <v>0.5161844122656958</v>
+        <v>0.5460603295533996</v>
       </c>
       <c r="T7">
-        <v>0.5161844122656958</v>
+        <v>0.5460603295533994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H8">
         <v>16.298357</v>
       </c>
       <c r="I8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N8">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O8">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P8">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q8">
-        <v>13.138610826767</v>
+        <v>5.493143915423334</v>
       </c>
       <c r="R8">
-        <v>118.247497440903</v>
+        <v>49.43829523881001</v>
       </c>
       <c r="S8">
-        <v>0.001087400090584116</v>
+        <v>0.0004809463516624065</v>
       </c>
       <c r="T8">
-        <v>0.001087400090584116</v>
+        <v>0.0004809463516624064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H9">
         <v>16.298357</v>
       </c>
       <c r="I9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>30.353977</v>
       </c>
       <c r="O9">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P9">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q9">
-        <v>54.96888372397656</v>
+        <v>54.96888372397657</v>
       </c>
       <c r="R9">
-        <v>494.719953515789</v>
+        <v>494.7199535157891</v>
       </c>
       <c r="S9">
-        <v>0.004549428393067653</v>
+        <v>0.00481274193595639</v>
       </c>
       <c r="T9">
-        <v>0.004549428393067654</v>
+        <v>0.00481274193595639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H10">
         <v>16.298357</v>
       </c>
       <c r="I10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>41.266181</v>
       </c>
       <c r="O10">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P10">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q10">
-        <v>74.73010555162412</v>
+        <v>74.73010555162413</v>
       </c>
       <c r="R10">
-        <v>672.5709499646171</v>
+        <v>672.5709499646172</v>
       </c>
       <c r="S10">
-        <v>0.006184940296781176</v>
+        <v>0.006542914618254697</v>
       </c>
       <c r="T10">
-        <v>0.006184940296781176</v>
+        <v>0.006542914618254695</v>
       </c>
     </row>
   </sheetData>
